--- a/Checklist/Source Code/Code Review.xlsx
+++ b/Checklist/Source Code/Code Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Berrutto\Documents\Github\PentestResources\Checklist\Source Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861D397A-45BA-478B-87AB-D731C773EC26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C13044-3570-49FC-8B3A-D75CF19F038D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CD1CB5F-16B6-406F-92E7-0FD37DC775E3}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="386">
   <si>
     <t>CWE</t>
   </si>
@@ -1113,15 +1113,6 @@
     <t>https://marketplace.visualstudio.com/items?itemName=MS-CST-E.vscode-devskim</t>
   </si>
   <si>
-    <t>C# Java</t>
-  </si>
-  <si>
-    <t>https://www.viva64.com/en/pvs-studio/</t>
-  </si>
-  <si>
-    <t>PVS Studio</t>
-  </si>
-  <si>
     <t>https://github.com/dotnet-security-guard/roslyn-security-guard</t>
   </si>
   <si>
@@ -1210,6 +1201,24 @@
   </si>
   <si>
     <t>Application Inspecto</t>
+  </si>
+  <si>
+    <t>Securiy Audit</t>
+  </si>
+  <si>
+    <t>https://marketplace.visualstudio.com/items?itemName=VorSecurity.AuditNet</t>
+  </si>
+  <si>
+    <t>C# Nuguet Audit</t>
+  </si>
+  <si>
+    <t>https://marketplace.visualstudio.com/items?itemName=MadsKristensen.PackageSecurityAlerts</t>
+  </si>
+  <si>
+    <t>C# - JavaScript libraries</t>
+  </si>
+  <si>
+    <t>PackageSecurityAlerts</t>
   </si>
 </sst>
 </file>
@@ -1394,14 +1403,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1441,6 +1442,41 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1475,33 +1511,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1516,10 +1525,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{791AC64D-D842-4EF2-9A46-1F9EEF2F036D}" name="Table2" displayName="Table2" ref="A1:B17" totalsRowShown="0" headerRowDxfId="3" dataDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{791AC64D-D842-4EF2-9A46-1F9EEF2F036D}" name="Table2" displayName="Table2" ref="A1:B17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{AB9F41BB-59AA-4A98-A500-F21E1A036625}" name="Input Validation" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{DA9CC531-5101-45D2-9C39-45B064BF43E3}" name="CWE" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{AB9F41BB-59AA-4A98-A500-F21E1A036625}" name="Input Validation" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DA9CC531-5101-45D2-9C39-45B064BF43E3}" name="CWE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1822,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7AF8A9-07FE-4950-BD1B-81883F5CC7E6}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,123 +1912,123 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>353</v>
+        <v>385</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>355</v>
+        <v>380</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>370</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2027,91 +2036,103 @@
         <v>317</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>362</v>
+        <v>321</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>363</v>
+      <c r="A19" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>365</v>
+        <v>358</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>372</v>
+        <v>364</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>376</v>
-      </c>
       <c r="C22" s="20" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5695,7 +5716,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>77</v>
       </c>
@@ -6407,21 +6428,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0FB74200235640A7E9D8178BA9B3AE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f6116f391984ad1371317cd63ad884c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a7566e3f-fcde-4d02-a50c-69cde93d2811" xmlns:ns4="ce501d51-8866-4a1a-8062-2e75ee26885d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1a0c43b4355569b809f24873c22fe77" ns3:_="" ns4:_="">
     <xsd:import namespace="a7566e3f-fcde-4d02-a50c-69cde93d2811"/>
@@ -6638,24 +6644,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5497BEF-4ADC-40E9-ABE4-932EBC33D320}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D12EC91-34C8-4EDA-B568-0B25C2249662}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B43C7AB9-E291-4C50-8310-79307D1DA8B0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6672,4 +6676,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5497BEF-4ADC-40E9-ABE4-932EBC33D320}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D12EC91-34C8-4EDA-B568-0B25C2249662}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>